--- a/Produce/xls/FeatureConfig.xlsx
+++ b/Produce/xls/FeatureConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -25,10 +25,10 @@
     <t>BuffIDArray</t>
   </si>
   <si>
-    <t>FeatureValue</t>
-  </si>
-  <si>
-    <t>FeatureValue2</t>
+    <t>#FeatureValue</t>
+  </si>
+  <si>
+    <t>#FeatureValue2</t>
   </si>
   <si>
     <t>Rate</t>
@@ -73,15 +73,18 @@
     <t>冲锋</t>
   </si>
   <si>
+    <t>[1007]</t>
+  </si>
+  <si>
+    <t>入场时BOSS先攻击</t>
+  </si>
+  <si>
+    <t>刚毅</t>
+  </si>
+  <si>
     <t>[0,0]</t>
   </si>
   <si>
-    <t>入场时BOSS先攻击</t>
-  </si>
-  <si>
-    <t>刚毅</t>
-  </si>
-  <si>
     <t>抵挡伤害</t>
   </si>
   <si>
@@ -94,13 +97,16 @@
     <t>再生</t>
   </si>
   <si>
+    <t>[1003]</t>
+  </si>
+  <si>
     <t>回合结束恢复血量</t>
   </si>
   <si>
     <t>穿刺</t>
   </si>
   <si>
-    <t>[1001]</t>
+    <t>[1006]</t>
   </si>
   <si>
     <t>攻击力增加</t>
@@ -115,6 +121,9 @@
     <t>威压</t>
   </si>
   <si>
+    <t>[1008]</t>
+  </si>
+  <si>
     <t>手牌中点数超过10的牌只算做10点</t>
   </si>
   <si>
@@ -145,7 +154,16 @@
     <t>荆棘</t>
   </si>
   <si>
+    <t>[1010]</t>
+  </si>
+  <si>
     <t>弃牌阶段需要丢弃的点数增加崩毁和伤害的n</t>
+  </si>
+  <si>
+    <t>回复</t>
+  </si>
+  <si>
+    <t>回合结束恢复固定血量</t>
   </si>
 </sst>
 </file>
@@ -153,9 +171,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -182,6 +200,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -189,38 +261,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -228,7 +309,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,78 +323,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,187 +358,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,30 +549,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -582,21 +576,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -604,6 +583,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,6 +617,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -639,10 +657,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,133 +669,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,10 +1160,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1167,10 +1185,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1254,7 +1272,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1266,7 +1284,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1274,10 +1292,10 @@
         <v>1003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -1289,7 +1307,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1297,10 +1315,10 @@
         <v>1004</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>0.1</v>
@@ -1312,7 +1330,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1320,10 +1338,10 @@
         <v>1005</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -1335,7 +1353,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1343,10 +1361,10 @@
         <v>1006</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -1358,7 +1376,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1366,10 +1384,10 @@
         <v>1007</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2">
         <v>10</v>
@@ -1381,7 +1399,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1389,10 +1407,10 @@
         <v>1008</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2">
         <v>0.5</v>
@@ -1404,7 +1422,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1412,10 +1430,10 @@
         <v>1009</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -1427,7 +1445,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1435,10 +1453,10 @@
         <v>1010</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2">
         <v>-0.3</v>
@@ -1450,7 +1468,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1458,10 +1476,10 @@
         <v>1011</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2">
         <v>0.3</v>
@@ -1473,7 +1491,30 @@
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2">
+        <v>1012</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Produce/xls/FeatureConfig.xlsx
+++ b/Produce/xls/FeatureConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="FeatureConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -25,10 +25,10 @@
     <t>BuffIDArray</t>
   </si>
   <si>
-    <t>#FeatureValue</t>
-  </si>
-  <si>
-    <t>#FeatureValue2</t>
+    <t>UseColor</t>
+  </si>
+  <si>
+    <t>ColorStr</t>
   </si>
   <si>
     <t>Rate</t>
@@ -58,10 +58,10 @@
     <t>BuffID数组</t>
   </si>
   <si>
-    <t>特性数值</t>
-  </si>
-  <si>
-    <t>特性数值2</t>
+    <t>使用颜色</t>
+  </si>
+  <si>
+    <t>颜色Str</t>
   </si>
   <si>
     <t>概率</t>
@@ -76,6 +76,9 @@
     <t>[1007]</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>入场时BOSS先攻击</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
   </si>
   <si>
     <t>[1003]</t>
+  </si>
+  <si>
+    <t>13FF00</t>
   </si>
   <si>
     <t>回合结束恢复血量</t>
@@ -172,9 +178,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -193,6 +199,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -216,113 +329,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -358,37 +364,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,25 +496,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,115 +526,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,17 +558,56 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,56 +632,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,10 +663,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,133 +675,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1163,7 +1169,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1185,10 +1191,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1209,10 +1215,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -1252,16 +1258,16 @@
         <v>19</v>
       </c>
       <c r="D4" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="E4" s="2">
         <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1269,22 +1275,22 @@
         <v>1002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F5" s="2">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1292,22 +1298,22 @@
         <v>1003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F6" s="2">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1315,22 +1321,22 @@
         <v>1004</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F7" s="2">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1338,22 +1344,22 @@
         <v>1005</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2">
         <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F8" s="2">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1361,22 +1367,22 @@
         <v>1006</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
         <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F9" s="2">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1384,22 +1390,22 @@
         <v>1007</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2">
         <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F10" s="2">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1407,22 +1413,22 @@
         <v>1008</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="2">
         <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F11" s="2">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1430,22 +1436,22 @@
         <v>1009</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F12" s="2">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1453,22 +1459,22 @@
         <v>1010</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D13" s="2">
-        <v>-0.3</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F13" s="2">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1476,22 +1482,22 @@
         <v>1011</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="E14" s="2">
         <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F14" s="2">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1499,22 +1505,22 @@
         <v>1012</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F15" s="2">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Produce/xls/FeatureConfig.xlsx
+++ b/Produce/xls/FeatureConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="FeatureConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -31,9 +31,15 @@
     <t>ColorStr</t>
   </si>
   <si>
+    <t>#颜色说明</t>
+  </si>
+  <si>
     <t>Rate</t>
   </si>
   <si>
+    <t>Desc</t>
+  </si>
+  <si>
     <t>#屏蔽不转</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>概率</t>
   </si>
   <si>
+    <t>特性描述</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -76,49 +85,82 @@
     <t>[1007]</t>
   </si>
   <si>
+    <t>FF0000</t>
+  </si>
+  <si>
+    <t>君主入场即攻击</t>
+  </si>
+  <si>
+    <t>入场时BOSS先攻击</t>
+  </si>
+  <si>
+    <t>刚毅</t>
+  </si>
+  <si>
+    <t>[0,0]</t>
+  </si>
+  <si>
+    <t>FFD200</t>
+  </si>
+  <si>
+    <t>橙色</t>
+  </si>
+  <si>
+    <t>非感化会受到君主伤害</t>
+  </si>
+  <si>
+    <t>抵挡伤害</t>
+  </si>
+  <si>
+    <t>疯狂</t>
+  </si>
+  <si>
+    <t>FF00F0</t>
+  </si>
+  <si>
+    <t>君主无法被感化</t>
+  </si>
+  <si>
+    <t>无法被感化</t>
+  </si>
+  <si>
+    <t>再生</t>
+  </si>
+  <si>
+    <t>[1003]</t>
+  </si>
+  <si>
+    <t>13FF00</t>
+  </si>
+  <si>
+    <t>绿色</t>
+  </si>
+  <si>
+    <t>回合开始恢复10%最大血量</t>
+  </si>
+  <si>
+    <t>回合结束恢复血量</t>
+  </si>
+  <si>
+    <t>穿刺</t>
+  </si>
+  <si>
+    <t>[1006]</t>
+  </si>
+  <si>
+    <t>增加50%伤害</t>
+  </si>
+  <si>
+    <t>攻击力增加</t>
+  </si>
+  <si>
+    <t>凋零</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
-    <t>入场时BOSS先攻击</t>
-  </si>
-  <si>
-    <t>刚毅</t>
-  </si>
-  <si>
-    <t>[0,0]</t>
-  </si>
-  <si>
-    <t>抵挡伤害</t>
-  </si>
-  <si>
-    <t>疯狂</t>
-  </si>
-  <si>
-    <t>无法被感化</t>
-  </si>
-  <si>
-    <t>再生</t>
-  </si>
-  <si>
-    <t>[1003]</t>
-  </si>
-  <si>
-    <t>13FF00</t>
-  </si>
-  <si>
-    <t>回合结束恢复血量</t>
-  </si>
-  <si>
-    <t>穿刺</t>
-  </si>
-  <si>
-    <t>[1006]</t>
-  </si>
-  <si>
-    <t>攻击力增加</t>
-  </si>
-  <si>
-    <t>凋零</t>
+    <t>每打出1张牌，必须丢弃1张</t>
   </si>
   <si>
     <t>每打出一张牌，使酒馆最上方的x张牌移至弃牌堆</t>
@@ -130,6 +172,9 @@
     <t>[1008]</t>
   </si>
   <si>
+    <t>抵挡10以上的伤害</t>
+  </si>
+  <si>
     <t>手牌中点数超过10的牌只算做10点</t>
   </si>
   <si>
@@ -139,6 +184,9 @@
     <t>[1002]</t>
   </si>
   <si>
+    <t>增加生命值</t>
+  </si>
+  <si>
     <t>生命值增加</t>
   </si>
   <si>
@@ -163,10 +211,22 @@
     <t>[1010]</t>
   </si>
   <si>
+    <t>00F9FF</t>
+  </si>
+  <si>
+    <t>根据本回合的伤害弃牌增加</t>
+  </si>
+  <si>
     <t>弃牌阶段需要丢弃的点数增加崩毁和伤害的n</t>
   </si>
   <si>
     <t>回复</t>
+  </si>
+  <si>
+    <t>&lt;color=#13FF00&gt;绿色&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>回合开始回复5血量</t>
   </si>
   <si>
     <t>回合结束恢复固定血量</t>
@@ -177,8 +237,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -199,91 +259,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,6 +304,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -305,17 +350,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,6 +382,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -364,187 +424,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,26 +618,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,13 +668,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,10 +723,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,16 +735,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,115 +753,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1166,22 +1226,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.8916666666667" style="2" customWidth="1"/>
-    <col min="3" max="6" width="28.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="56.125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="3" max="8" width="28.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="56.125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1197,330 +1257,387 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>1001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2">
         <v>10</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>1002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2">
         <v>10</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>1003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2">
         <v>10</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>1004</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2">
         <v>10</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>1005</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2">
         <v>10</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>33</v>
+      <c r="H8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>1006</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="2">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2">
         <v>10</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>35</v>
+      <c r="H9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>1007</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="2">
+        <v>47</v>
+      </c>
+      <c r="G10" s="2">
         <v>10</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>38</v>
+      <c r="H10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>1008</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="2">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2">
         <v>10</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>41</v>
+      <c r="H11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>1009</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="2">
+        <v>23</v>
+      </c>
+      <c r="G12" s="2">
         <v>10</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>44</v>
+      <c r="H12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>1010</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="2">
+        <v>23</v>
+      </c>
+      <c r="G13" s="2">
         <v>10</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>46</v>
+      <c r="H13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>1011</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="2">
+        <v>65</v>
+      </c>
+      <c r="G14" s="2">
         <v>10</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>49</v>
+      <c r="H14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>1012</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="2">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="2">
         <v>10</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>51</v>
+      <c r="H15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Produce/xls/FeatureConfig.xlsx
+++ b/Produce/xls/FeatureConfig.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
+  <si>
+    <t>#todo</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -97,24 +100,27 @@
     <t>刚毅</t>
   </si>
   <si>
+    <t>[1012]</t>
+  </si>
+  <si>
+    <t>FFD200</t>
+  </si>
+  <si>
+    <t>橙色</t>
+  </si>
+  <si>
+    <t>非感化会受到君主伤害</t>
+  </si>
+  <si>
+    <t>抵挡伤害</t>
+  </si>
+  <si>
+    <t>疯狂</t>
+  </si>
+  <si>
     <t>[0,0]</t>
   </si>
   <si>
-    <t>FFD200</t>
-  </si>
-  <si>
-    <t>橙色</t>
-  </si>
-  <si>
-    <t>非感化会受到君主伤害</t>
-  </si>
-  <si>
-    <t>抵挡伤害</t>
-  </si>
-  <si>
-    <t>疯狂</t>
-  </si>
-  <si>
     <t>FF00F0</t>
   </si>
   <si>
@@ -157,6 +163,9 @@
     <t>凋零</t>
   </si>
   <si>
+    <t>[1013]</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
@@ -193,7 +202,7 @@
     <t>血肉</t>
   </si>
   <si>
-    <t>[1001,1002]</t>
+    <t>[1004,1002]</t>
   </si>
   <si>
     <t>生命值增加，攻击力减少</t>
@@ -202,6 +211,9 @@
     <t>狂战</t>
   </si>
   <si>
+    <t>[1001,1005]</t>
+  </si>
+  <si>
     <t>生命值减少，攻击力增加</t>
   </si>
   <si>
@@ -214,7 +226,7 @@
     <t>00F9FF</t>
   </si>
   <si>
-    <t>根据本回合的伤害弃牌增加</t>
+    <t>根据受到的伤害增加弃牌</t>
   </si>
   <si>
     <t>弃牌阶段需要丢弃的点数增加崩毁和伤害的n</t>
@@ -226,7 +238,7 @@
     <t>&lt;color=#13FF00&gt;绿色&lt;/color&gt;</t>
   </si>
   <si>
-    <t>回合开始回复5血量</t>
+    <t>每回合开始回复5血量</t>
   </si>
   <si>
     <t>回合结束恢复固定血量</t>
@@ -237,10 +249,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -259,38 +271,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,6 +331,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -311,9 +346,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,7 +363,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,22 +392,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -374,36 +400,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,55 +436,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,127 +604,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,11 +638,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,6 +675,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -655,30 +706,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,15 +733,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -723,10 +741,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,137 +753,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,6 +894,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1226,22 +1247,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.8916666666667" style="2" customWidth="1"/>
-    <col min="3" max="8" width="28.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="56.125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="24" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.8916666666667" style="2" customWidth="1"/>
+    <col min="4" max="9" width="28.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="56.125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1257,23 +1279,23 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1281,22 +1303,22 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="3" spans="2:10">
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1309,7 +1331,7 @@
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1318,326 +1340,336 @@
       <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2">
+    <row r="4" spans="1:10">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2">
         <v>1001</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2">
         <v>10</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2">
+    <row r="5" spans="2:10">
+      <c r="B5" s="2">
         <v>1002</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2">
         <v>10</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2">
+    <row r="6" spans="2:10">
+      <c r="B6" s="2">
         <v>1003</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2">
         <v>10</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2">
+    <row r="7" spans="1:10">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2">
         <v>1004</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="2">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="2">
+        <v>1006</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="2">
+        <v>1007</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2">
+        <v>1008</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="2">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2">
+        <v>1009</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="2">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2">
+        <v>1010</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="2">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="2">
+        <v>1011</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="2">
+        <v>10</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2">
+        <v>1012</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="2">
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="2">
         <v>10</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2">
-        <v>1005</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="2">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2">
-        <v>1006</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="2">
-        <v>10</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2">
-        <v>1007</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="2">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2">
-        <v>1008</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="2">
-        <v>10</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2">
-        <v>1009</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="2">
-        <v>10</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2">
-        <v>1010</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="2">
-        <v>10</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2">
-        <v>1011</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="2">
-        <v>10</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2">
-        <v>1012</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="2">
-        <v>10</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="I15" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Produce/xls/FeatureConfig.xlsx
+++ b/Produce/xls/FeatureConfig.xlsx
@@ -154,7 +154,7 @@
     <t>[1006]</t>
   </si>
   <si>
-    <t>增加50%伤害</t>
+    <t>君主增加5伤害</t>
   </si>
   <si>
     <t>攻击力增加</t>
@@ -249,10 +249,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -272,52 +272,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,7 +286,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -339,13 +345,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -361,19 +384,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,23 +408,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,13 +442,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,7 +538,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,151 +610,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,23 +639,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,20 +671,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,25 +719,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -741,10 +741,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -753,19 +753,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -774,112 +774,112 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1250,7 +1250,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1264,7 +1264,7 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">

--- a/Produce/xls/FeatureConfig.xlsx
+++ b/Produce/xls/FeatureConfig.xlsx
@@ -1250,7 +1250,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Produce/xls/FeatureConfig.xlsx
+++ b/Produce/xls/FeatureConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
   <si>
     <t>#todo</t>
   </si>
@@ -58,6 +58,9 @@
     <t>float</t>
   </si>
   <si>
+    <t>炼狱</t>
+  </si>
+  <si>
     <t>特性ID</t>
   </si>
   <si>
@@ -82,7 +85,10 @@
     <t>备注</t>
   </si>
   <si>
-    <t>冲锋</t>
+    <t>神曲</t>
+  </si>
+  <si>
+    <t>先攻</t>
   </si>
   <si>
     <t>[1007]</t>
@@ -91,13 +97,19 @@
     <t>FF0000</t>
   </si>
   <si>
+    <t>红色</t>
+  </si>
+  <si>
     <t>君主入场即攻击</t>
   </si>
   <si>
     <t>入场时BOSS先攻击</t>
   </si>
   <si>
-    <t>刚毅</t>
+    <t>圣道</t>
+  </si>
+  <si>
+    <t>不屈</t>
   </si>
   <si>
     <t>[1012]</t>
@@ -109,16 +121,19 @@
     <t>橙色</t>
   </si>
   <si>
-    <t>非感化会受到君主伤害</t>
+    <t>未被感化会舍身一击</t>
   </si>
   <si>
     <t>抵挡伤害</t>
   </si>
   <si>
+    <t>深渊</t>
+  </si>
+  <si>
     <t>疯狂</t>
   </si>
   <si>
-    <t>[0,0]</t>
+    <t>[0]</t>
   </si>
   <si>
     <t>FF00F0</t>
@@ -130,6 +145,9 @@
     <t>无法被感化</t>
   </si>
   <si>
+    <t>断罪</t>
+  </si>
+  <si>
     <t>再生</t>
   </si>
   <si>
@@ -142,13 +160,16 @@
     <t>绿色</t>
   </si>
   <si>
-    <t>回合开始恢复10%最大血量</t>
+    <t>每回合再生20%最大血量</t>
   </si>
   <si>
     <t>回合结束恢复血量</t>
   </si>
   <si>
-    <t>穿刺</t>
+    <t>日落</t>
+  </si>
+  <si>
+    <t>增伤</t>
   </si>
   <si>
     <t>[1006]</t>
@@ -160,7 +181,10 @@
     <t>攻击力增加</t>
   </si>
   <si>
-    <t>凋零</t>
+    <t>破颅者</t>
+  </si>
+  <si>
+    <t>暴政</t>
   </si>
   <si>
     <t>[1013]</t>
@@ -193,7 +217,7 @@
     <t>[1002]</t>
   </si>
   <si>
-    <t>增加生命值</t>
+    <t>君主生命值增加</t>
   </si>
   <si>
     <t>生命值增加</t>
@@ -217,7 +241,7 @@
     <t>生命值减少，攻击力增加</t>
   </si>
   <si>
-    <t>荆棘</t>
+    <t>反伤</t>
   </si>
   <si>
     <t>[1010]</t>
@@ -242,6 +266,12 @@
   </si>
   <si>
     <t>回合结束恢复固定血量</t>
+  </si>
+  <si>
+    <t>畸变</t>
+  </si>
+  <si>
+    <t>贪婪阴霾</t>
   </si>
 </sst>
 </file>
@@ -249,12 +279,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,8 +301,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,21 +406,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -310,19 +415,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -331,15 +430,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,69 +444,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,31 +478,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,151 +658,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,18 +680,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,41 +700,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,6 +733,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -741,10 +783,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -753,137 +795,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,6 +940,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1247,10 +1295,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1263,7 +1311,7 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1294,8 +1342,11 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" ht="15" spans="2:11">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1317,170 +1368,195 @@
       <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="K2" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" ht="15" spans="2:11">
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" ht="15" spans="1:11">
       <c r="A4" s="4"/>
       <c r="B4" s="2">
         <v>1001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="H4" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" ht="15" spans="1:11">
+      <c r="A5" s="4"/>
       <c r="B5" s="2">
         <v>1002</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" ht="15" spans="2:11">
       <c r="B6" s="2">
         <v>1003</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="4"/>
       <c r="B7" s="2">
         <v>1004</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H7" s="2">
         <v>10</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="4"/>
       <c r="B8" s="2">
         <v>1005</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H8" s="2">
         <v>10</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -1488,51 +1564,52 @@
         <v>1006</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H9" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="1:10">
+      <c r="A10" s="4"/>
       <c r="B10" s="2">
         <v>1007</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H10" s="2">
         <v>10</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1541,25 +1618,25 @@
         <v>1008</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H11" s="2">
         <v>10</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1568,25 +1645,25 @@
         <v>1009</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H12" s="2">
         <v>10</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1595,25 +1672,25 @@
         <v>1010</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H13" s="2">
         <v>10</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -1621,25 +1698,25 @@
         <v>1011</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H14" s="2">
         <v>10</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1648,28 +1725,51 @@
         <v>1012</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H15" s="2">
         <v>10</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="2">
+        <v>1013</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Produce/xls/FeatureConfig.xlsx
+++ b/Produce/xls/FeatureConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="FeatureConfig" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
     <t>绿色</t>
   </si>
   <si>
-    <t>每回合再生20%最大血量</t>
+    <t>每回合再生10%最大血量</t>
   </si>
   <si>
     <t>回合结束恢复血量</t>
@@ -262,7 +262,7 @@
     <t>&lt;color=#13FF00&gt;绿色&lt;/color&gt;</t>
   </si>
   <si>
-    <t>每回合开始回复5血量</t>
+    <t>每回合开始回复4血量</t>
   </si>
   <si>
     <t>回合结束恢复固定血量</t>
@@ -279,10 +279,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -308,14 +308,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,67 +443,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -397,59 +450,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -484,19 +484,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,61 +640,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,97 +664,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,10 +680,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -704,6 +702,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -715,6 +728,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,48 +775,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -783,145 +783,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1298,7 +1298,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Produce/xls/FeatureConfig.xlsx
+++ b/Produce/xls/FeatureConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="FeatureConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="111">
   <si>
     <t>#todo</t>
   </si>
@@ -28,6 +28,12 @@
     <t>BuffIDArray</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>OnlyOne</t>
+  </si>
+  <si>
     <t>UseColor</t>
   </si>
   <si>
@@ -70,6 +76,12 @@
     <t>BuffID数组</t>
   </si>
   <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>是否唯一</t>
+  </si>
+  <si>
     <t>使用颜色</t>
   </si>
   <si>
@@ -88,190 +100,253 @@
     <t>神曲</t>
   </si>
   <si>
-    <t>先攻</t>
+    <t>先攻I</t>
+  </si>
+  <si>
+    <t>[1019]</t>
+  </si>
+  <si>
+    <t>FF0000</t>
+  </si>
+  <si>
+    <t>红色</t>
+  </si>
+  <si>
+    <t>君主入场即攻击</t>
+  </si>
+  <si>
+    <t>入场时BOSS先攻击</t>
+  </si>
+  <si>
+    <t>圣道</t>
+  </si>
+  <si>
+    <t>不屈</t>
+  </si>
+  <si>
+    <t>[1012]</t>
+  </si>
+  <si>
+    <t>FFD200</t>
+  </si>
+  <si>
+    <t>橙色</t>
+  </si>
+  <si>
+    <t>未被感化会舍身一击</t>
+  </si>
+  <si>
+    <t>抵挡伤害</t>
+  </si>
+  <si>
+    <t>深渊</t>
+  </si>
+  <si>
+    <t>疯狂</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>FF00F0</t>
+  </si>
+  <si>
+    <t>君主无法被感化</t>
+  </si>
+  <si>
+    <t>无法被感化</t>
+  </si>
+  <si>
+    <t>断罪</t>
+  </si>
+  <si>
+    <t>再生</t>
+  </si>
+  <si>
+    <t>[1003]</t>
+  </si>
+  <si>
+    <t>13FF00</t>
+  </si>
+  <si>
+    <t>绿色</t>
+  </si>
+  <si>
+    <t>每回合再生10%最大血量</t>
+  </si>
+  <si>
+    <t>回合结束恢复血量</t>
+  </si>
+  <si>
+    <t>日落</t>
+  </si>
+  <si>
+    <t>增伤I</t>
+  </si>
+  <si>
+    <t>[1006]</t>
+  </si>
+  <si>
+    <t>君主增加5伤害</t>
+  </si>
+  <si>
+    <t>攻击力增加</t>
+  </si>
+  <si>
+    <t>破颅者</t>
+  </si>
+  <si>
+    <t>暴政</t>
+  </si>
+  <si>
+    <t>[1013]</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>每打出1张牌，必须丢弃1张</t>
+  </si>
+  <si>
+    <t>每打出一张牌，使酒馆最上方的x张牌移至弃牌堆</t>
+  </si>
+  <si>
+    <t>霜寒</t>
+  </si>
+  <si>
+    <t>[1008]</t>
+  </si>
+  <si>
+    <t>00F9FF</t>
+  </si>
+  <si>
+    <t>天蓝</t>
+  </si>
+  <si>
+    <t>抵挡12以上的伤害</t>
+  </si>
+  <si>
+    <t>手牌中点数超过10的牌只算做10点</t>
+  </si>
+  <si>
+    <t>强壮</t>
+  </si>
+  <si>
+    <t>[1002]</t>
+  </si>
+  <si>
+    <t>君主生命值增加</t>
+  </si>
+  <si>
+    <t>生命值增加</t>
+  </si>
+  <si>
+    <t>血肉</t>
+  </si>
+  <si>
+    <t>[1004,1002]</t>
+  </si>
+  <si>
+    <t>生命值增加，攻击力减少</t>
+  </si>
+  <si>
+    <t>狂战</t>
+  </si>
+  <si>
+    <t>[1001,1005]</t>
+  </si>
+  <si>
+    <t>生命值减少，攻击力增加</t>
+  </si>
+  <si>
+    <t>反伤</t>
+  </si>
+  <si>
+    <t>[1010]</t>
+  </si>
+  <si>
+    <t>根据受到的伤害增加弃牌</t>
+  </si>
+  <si>
+    <t>弃牌阶段需要丢弃的点数增加崩毁和伤害的n</t>
+  </si>
+  <si>
+    <t>回复I</t>
+  </si>
+  <si>
+    <t>[1011]</t>
+  </si>
+  <si>
+    <t>每回合开始回复3血量</t>
+  </si>
+  <si>
+    <t>回合结束恢复固定血量</t>
+  </si>
+  <si>
+    <t>畸变</t>
+  </si>
+  <si>
+    <t>紫色</t>
+  </si>
+  <si>
+    <t>贪婪阴霾</t>
+  </si>
+  <si>
+    <t>回复II</t>
+  </si>
+  <si>
+    <t>[1014]</t>
+  </si>
+  <si>
+    <t>每回合开始回复4血量</t>
+  </si>
+  <si>
+    <t>炼狱I</t>
+  </si>
+  <si>
+    <t>[1015]</t>
+  </si>
+  <si>
+    <t>每回合开始增加2伤害</t>
+  </si>
+  <si>
+    <t>炼狱II</t>
+  </si>
+  <si>
+    <t>[1016]</t>
+  </si>
+  <si>
+    <t>每回合开始增加3伤害</t>
+  </si>
+  <si>
+    <t>增伤II</t>
+  </si>
+  <si>
+    <t>[1017]</t>
+  </si>
+  <si>
+    <t>君主增加8伤害</t>
+  </si>
+  <si>
+    <t>[1018]</t>
+  </si>
+  <si>
+    <t>神曲庇护恢复15%HP</t>
+  </si>
+  <si>
+    <t>先攻II</t>
   </si>
   <si>
     <t>[1007]</t>
   </si>
   <si>
-    <t>FF0000</t>
-  </si>
-  <si>
-    <t>红色</t>
-  </si>
-  <si>
-    <t>君主入场即攻击</t>
-  </si>
-  <si>
-    <t>入场时BOSS先攻击</t>
-  </si>
-  <si>
-    <t>圣道</t>
-  </si>
-  <si>
-    <t>不屈</t>
-  </si>
-  <si>
-    <t>[1012]</t>
-  </si>
-  <si>
-    <t>FFD200</t>
-  </si>
-  <si>
-    <t>橙色</t>
-  </si>
-  <si>
-    <t>未被感化会舍身一击</t>
-  </si>
-  <si>
-    <t>抵挡伤害</t>
-  </si>
-  <si>
-    <t>深渊</t>
-  </si>
-  <si>
-    <t>疯狂</t>
-  </si>
-  <si>
-    <t>[0]</t>
-  </si>
-  <si>
-    <t>FF00F0</t>
-  </si>
-  <si>
-    <t>君主无法被感化</t>
-  </si>
-  <si>
-    <t>无法被感化</t>
-  </si>
-  <si>
-    <t>断罪</t>
-  </si>
-  <si>
-    <t>再生</t>
-  </si>
-  <si>
-    <t>[1003]</t>
-  </si>
-  <si>
-    <t>13FF00</t>
-  </si>
-  <si>
-    <t>绿色</t>
-  </si>
-  <si>
-    <t>每回合再生10%最大血量</t>
-  </si>
-  <si>
-    <t>回合结束恢复血量</t>
-  </si>
-  <si>
-    <t>日落</t>
-  </si>
-  <si>
-    <t>增伤</t>
-  </si>
-  <si>
-    <t>[1006]</t>
-  </si>
-  <si>
-    <t>君主增加5伤害</t>
-  </si>
-  <si>
-    <t>攻击力增加</t>
-  </si>
-  <si>
-    <t>破颅者</t>
-  </si>
-  <si>
-    <t>暴政</t>
-  </si>
-  <si>
-    <t>[1013]</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>每打出1张牌，必须丢弃1张</t>
-  </si>
-  <si>
-    <t>每打出一张牌，使酒馆最上方的x张牌移至弃牌堆</t>
-  </si>
-  <si>
-    <t>威压</t>
-  </si>
-  <si>
-    <t>[1008]</t>
-  </si>
-  <si>
-    <t>抵挡10以上的伤害</t>
-  </si>
-  <si>
-    <t>手牌中点数超过10的牌只算做10点</t>
-  </si>
-  <si>
-    <t>强壮</t>
-  </si>
-  <si>
-    <t>[1002]</t>
-  </si>
-  <si>
-    <t>君主生命值增加</t>
-  </si>
-  <si>
-    <t>生命值增加</t>
-  </si>
-  <si>
-    <t>血肉</t>
-  </si>
-  <si>
-    <t>[1004,1002]</t>
-  </si>
-  <si>
-    <t>生命值增加，攻击力减少</t>
-  </si>
-  <si>
-    <t>狂战</t>
-  </si>
-  <si>
-    <t>[1001,1005]</t>
-  </si>
-  <si>
-    <t>生命值减少，攻击力增加</t>
-  </si>
-  <si>
-    <t>反伤</t>
-  </si>
-  <si>
-    <t>[1010]</t>
-  </si>
-  <si>
-    <t>00F9FF</t>
-  </si>
-  <si>
-    <t>根据受到的伤害增加弃牌</t>
-  </si>
-  <si>
-    <t>弃牌阶段需要丢弃的点数增加崩毁和伤害的n</t>
-  </si>
-  <si>
-    <t>回复</t>
-  </si>
-  <si>
-    <t>&lt;color=#13FF00&gt;绿色&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>每回合开始回复4血量</t>
-  </si>
-  <si>
-    <t>回合结束恢复固定血量</t>
-  </si>
-  <si>
-    <t>畸变</t>
-  </si>
-  <si>
-    <t>贪婪阴霾</t>
+    <t>FFFFFF</t>
+  </si>
+  <si>
+    <t>黑色</t>
+  </si>
+  <si>
+    <t>抵挡8以上的伤害</t>
   </si>
 </sst>
 </file>
@@ -280,11 +355,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,8 +382,108 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF26F9F9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFE200FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,10 +497,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,36 +559,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -374,82 +566,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -484,19 +600,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,25 +744,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,114 +756,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -658,13 +774,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,9 +796,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,17 +835,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,17 +870,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -761,16 +877,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -783,10 +899,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,137 +911,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,6 +1062,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1000,6 +1137,12 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="0026F9F9"/>
+      <color rgb="00E200FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1295,10 +1438,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1306,12 +1449,14 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="24" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.8916666666667" style="2" customWidth="1"/>
-    <col min="4" max="9" width="28.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="56.125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="4" max="5" width="28.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.8916666666667" style="2" customWidth="1"/>
+    <col min="7" max="11" width="28.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="56.125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1330,446 +1475,791 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="2:11">
+    <row r="2" ht="15" spans="2:13">
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>14</v>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="2:11">
+    <row r="3" ht="14.25" spans="2:13">
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:11">
+    <row r="4" ht="14.25" spans="1:13">
       <c r="A4" s="4"/>
       <c r="B4" s="2">
         <v>1001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="I4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" ht="15" spans="1:11">
+    <row r="5" ht="14.25" spans="1:13">
       <c r="A5" s="4"/>
       <c r="B5" s="2">
         <v>1002</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2">
         <v>8</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>37</v>
+      <c r="K5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="2:11">
+    <row r="6" ht="15" spans="2:13">
       <c r="B6" s="2">
         <v>1003</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>43</v>
+      <c r="K6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7" s="4"/>
       <c r="B7" s="2">
         <v>1004</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="2">
-        <v>10</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>49</v>
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="2">
+        <v>9</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="A8" s="4"/>
       <c r="B8" s="2">
         <v>1005</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="2">
         <v>10</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="K8" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:12">
       <c r="B9" s="2">
         <v>1006</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="H9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="2">
         <v>3</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>60</v>
+      <c r="K9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12">
       <c r="A10" s="4"/>
       <c r="B10" s="2">
         <v>1007</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="2">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="2">
         <v>10</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>64</v>
+      <c r="K10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:12">
       <c r="A11" s="4"/>
       <c r="B11" s="2">
         <v>1008</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="2">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="2">
         <v>10</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>68</v>
+      <c r="K11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="2">
         <v>1009</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="2">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="2">
         <v>10</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>71</v>
+      <c r="K12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="2">
         <v>1010</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="2">
         <v>10</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>74</v>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="2">
+        <v>10</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:12">
       <c r="B14" s="2">
         <v>1011</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="2">
-        <v>10</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>79</v>
+        <v>11</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="2">
         <v>1012</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="2">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="2">
         <v>10</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>83</v>
+      <c r="K15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:11">
       <c r="B16" s="2">
         <v>1013</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>85</v>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2">
+        <v>1014</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="2">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="2">
+        <v>3</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2">
+        <v>1015</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="2">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="2">
+        <v>8</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2">
+        <v>1016</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="2">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="2">
+        <v>3</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="4"/>
+      <c r="B20" s="2">
+        <v>1017</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="2">
+        <v>4</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2">
+        <v>1018</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="4"/>
+      <c r="B22" s="2">
+        <v>1019</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="2">
+        <v>4</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="4"/>
+      <c r="B23" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="2">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Produce/xls/FeatureConfig.xlsx
+++ b/Produce/xls/FeatureConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="24225" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="FeatureConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="117">
   <si>
     <t>#todo</t>
   </si>
@@ -223,7 +223,7 @@
     <t>天蓝</t>
   </si>
   <si>
-    <t>抵挡12以上的伤害</t>
+    <t>抵挡15以上的伤害</t>
   </si>
   <si>
     <t>手牌中点数超过10的牌只算做10点</t>
@@ -346,7 +346,25 @@
     <t>黑色</t>
   </si>
   <si>
-    <t>抵挡8以上的伤害</t>
+    <t>抵挡10以上的伤害</t>
+  </si>
+  <si>
+    <t>掘墓I</t>
+  </si>
+  <si>
+    <t>[1021]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 墓地每6张牌，攻击加一 </t>
+  </si>
+  <si>
+    <t>掘墓II</t>
+  </si>
+  <si>
+    <t>[1022]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 墓地每3张牌，攻击加一 </t>
   </si>
 </sst>
 </file>
@@ -355,8 +373,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -430,6 +448,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -437,8 +470,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,14 +510,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,98 +578,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -600,163 +618,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,19 +792,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,32 +809,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -835,11 +827,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,8 +860,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,17 +875,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,10 +917,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -911,133 +929,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1438,10 +1456,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2262,6 +2280,70 @@
         <v>110</v>
       </c>
     </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="2">
+        <v>1021</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="2">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" s="2">
+        <v>3</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="2">
+        <v>1022</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="2">
+        <v>14</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
